--- a/Nanazono_Familiar/Assets/Resources/NameList.xlsx
+++ b/Nanazono_Familiar/Assets/Resources/NameList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m011928523\Nanazono_Familiar\Nanazono_Familiar\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m011903059\Documents\Nanazono_Familiar\Nanazono_Familiar\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1078,10 +1078,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レ,イ,モ,ン,ド,メ,ル,セ,デ,ス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ク,レ,ム,マ,キ,シ,ミ,リ,ア,ー,ノ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1134,11 +1130,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シ,ャ,ー,ロ,ッ,ト,ア,ン,ジ,ェ,リ,ー,ク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キ,ャ,ロ,ラ,イ,ナ,エ,ス,テ,フ,ァ,ニ,ア</t>
+    <t>ド,レ,イ,モ,ン,ド,メ,ル,セ,デ,ス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シ,ャ,ー,ロ,ッ,ト,ア,ン,ジ,ェ,リ,ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キ,ャ,ロ,ラ,イ,ナ,エ,ス,テ,フ,ァ,ニ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1471,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1553,17 +1553,11 @@
       <c r="H2" t="s">
         <v>256</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>263</v>
       </c>
-      <c r="J2" t="s">
-        <v>264</v>
-      </c>
       <c r="K2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1592,13 +1586,10 @@
         <v>257</v>
       </c>
       <c r="J3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K3" t="s">
-        <v>274</v>
-      </c>
-      <c r="L3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1627,10 +1618,10 @@
         <v>258</v>
       </c>
       <c r="J4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1659,10 +1650,10 @@
         <v>259</v>
       </c>
       <c r="J5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1691,7 +1682,10 @@
         <v>260</v>
       </c>
       <c r="J6" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="K6" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1720,7 +1714,10 @@
         <v>261</v>
       </c>
       <c r="J7" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="K7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1746,7 +1743,7 @@
         <v>262</v>
       </c>
       <c r="J8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1769,7 +1766,7 @@
         <v>239</v>
       </c>
       <c r="J9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1792,7 +1789,7 @@
         <v>240</v>
       </c>
       <c r="J10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1813,6 +1810,9 @@
       </c>
       <c r="G11" t="s">
         <v>241</v>
+      </c>
+      <c r="J11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">

--- a/Nanazono_Familiar/Assets/Resources/NameList.xlsx
+++ b/Nanazono_Familiar/Assets/Resources/NameList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m011903059\Documents\Nanazono_Familiar\Nanazono_Familiar\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m011928523\Nanazono_Familiar\Nanazono_Familiar\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <si>
     <t>kake3</t>
     <phoneticPr fontId="1"/>
@@ -1140,6 +1140,116 @@
   <si>
     <t>キ,ャ,ロ,ラ,イ,ナ,エ,ス,テ,フ,ァ,ニ</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コワイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コイワ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワコイ</t>
+  </si>
+  <si>
+    <t>ワイコ</t>
+  </si>
+  <si>
+    <t>イコワ</t>
+  </si>
+  <si>
+    <t>イワコ</t>
+  </si>
+  <si>
+    <t>イヤダ</t>
+  </si>
+  <si>
+    <t>イダヤ</t>
+  </si>
+  <si>
+    <t>ダヤイ</t>
+  </si>
+  <si>
+    <t>ダイヤ</t>
+  </si>
+  <si>
+    <t>ヤダイ</t>
+  </si>
+  <si>
+    <t>ヤイダ</t>
+  </si>
+  <si>
+    <t>ナンデ</t>
+  </si>
+  <si>
+    <t>ナデン</t>
+  </si>
+  <si>
+    <t>デナン</t>
+  </si>
+  <si>
+    <t>デンナ</t>
+  </si>
+  <si>
+    <t>ンデナ</t>
+  </si>
+  <si>
+    <t>ンナデ</t>
+  </si>
+  <si>
+    <t>キエタクナイ</t>
+  </si>
+  <si>
+    <t>エナクイタキ</t>
+  </si>
+  <si>
+    <t>エクキイナタ</t>
+  </si>
+  <si>
+    <t>クナタキイエ</t>
+  </si>
+  <si>
+    <t>ナエイクキタ</t>
+  </si>
+  <si>
+    <t>イナクタエキ</t>
+  </si>
+  <si>
+    <t>ナニコイツ</t>
+  </si>
+  <si>
+    <t>ツイコニナ</t>
+  </si>
+  <si>
+    <t>イニツナコ</t>
+  </si>
+  <si>
+    <t>コナニツイ</t>
+  </si>
+  <si>
+    <t>ニナイコツ</t>
+  </si>
+  <si>
+    <t>ナコイツニ</t>
+  </si>
+  <si>
+    <t>ヤメテヨ</t>
+  </si>
+  <si>
+    <t>ヨテメヤ</t>
+  </si>
+  <si>
+    <t>メヨテヤ</t>
+  </si>
+  <si>
+    <t>テヤヨメ</t>
+  </si>
+  <si>
+    <t>テヨメヤ</t>
+  </si>
+  <si>
+    <t>メテヨヤ</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1582,7 @@
   <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1559,6 +1669,9 @@
       <c r="K2" t="s">
         <v>272</v>
       </c>
+      <c r="L2" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
@@ -1591,6 +1704,9 @@
       <c r="K3" t="s">
         <v>273</v>
       </c>
+      <c r="L3" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
@@ -1623,6 +1739,9 @@
       <c r="K4" t="s">
         <v>274</v>
       </c>
+      <c r="L4" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
@@ -1655,6 +1774,9 @@
       <c r="K5" t="s">
         <v>275</v>
       </c>
+      <c r="L5" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
@@ -1687,6 +1809,9 @@
       <c r="K6" t="s">
         <v>277</v>
       </c>
+      <c r="L6" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
@@ -1719,6 +1844,9 @@
       <c r="K7" t="s">
         <v>278</v>
       </c>
+      <c r="L7" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
@@ -1745,6 +1873,9 @@
       <c r="J8" t="s">
         <v>269</v>
       </c>
+      <c r="L8" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
@@ -1768,6 +1899,9 @@
       <c r="J9" t="s">
         <v>270</v>
       </c>
+      <c r="L9" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
@@ -1791,6 +1925,9 @@
       <c r="J10" t="s">
         <v>271</v>
       </c>
+      <c r="L10" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
@@ -1814,6 +1951,9 @@
       <c r="J11" t="s">
         <v>276</v>
       </c>
+      <c r="L11" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
@@ -1831,6 +1971,9 @@
       <c r="G12" t="s">
         <v>242</v>
       </c>
+      <c r="L12" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
@@ -1848,6 +1991,9 @@
       <c r="G13" t="s">
         <v>243</v>
       </c>
+      <c r="L13" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
@@ -1865,6 +2011,9 @@
       <c r="G14" t="s">
         <v>244</v>
       </c>
+      <c r="L14" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
@@ -1882,6 +2031,9 @@
       <c r="G15" t="s">
         <v>245</v>
       </c>
+      <c r="L15" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
@@ -1899,8 +2051,11 @@
       <c r="G16" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -1916,8 +2071,11 @@
       <c r="G17" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -1933,8 +2091,11 @@
       <c r="G18" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1950,8 +2111,11 @@
       <c r="G19" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -1967,8 +2131,11 @@
       <c r="G20" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1984,8 +2151,11 @@
       <c r="G21" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
         <v>44</v>
       </c>
@@ -1998,8 +2168,11 @@
       <c r="G22" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
         <v>45</v>
       </c>
@@ -2012,8 +2185,11 @@
       <c r="G23" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>46</v>
       </c>
@@ -2026,8 +2202,11 @@
       <c r="G24" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
         <v>47</v>
       </c>
@@ -2037,8 +2216,11 @@
       <c r="D25" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>48</v>
       </c>
@@ -2048,8 +2230,11 @@
       <c r="D26" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
         <v>49</v>
       </c>
@@ -2059,8 +2244,11 @@
       <c r="D27" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
         <v>50</v>
       </c>
@@ -2070,8 +2258,11 @@
       <c r="D28" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
         <v>51</v>
       </c>
@@ -2081,8 +2272,11 @@
       <c r="D29" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L29" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
         <v>52</v>
       </c>
@@ -2092,8 +2286,11 @@
       <c r="D30" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
         <v>53</v>
       </c>
@@ -2103,8 +2300,11 @@
       <c r="D31" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
         <v>54</v>
       </c>
@@ -2114,8 +2314,11 @@
       <c r="D32" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="L32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
         <v>55</v>
       </c>
@@ -2125,8 +2328,11 @@
       <c r="D33" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="L33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
         <v>56</v>
       </c>
@@ -2136,8 +2342,11 @@
       <c r="D34" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="L34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
         <v>57</v>
       </c>
@@ -2147,8 +2356,11 @@
       <c r="D35" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="L35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
         <v>58</v>
       </c>
@@ -2158,8 +2370,11 @@
       <c r="D36" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="L36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
         <v>59</v>
       </c>
@@ -2169,8 +2384,11 @@
       <c r="D37" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="L37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
         <v>60</v>
       </c>
@@ -2181,7 +2399,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
         <v>61</v>
       </c>
@@ -2192,7 +2410,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
         <v>62</v>
       </c>
@@ -2203,7 +2421,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
         <v>63</v>
       </c>
@@ -2214,7 +2432,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" t="s">
         <v>64</v>
       </c>
@@ -2225,7 +2443,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
         <v>65</v>
       </c>
@@ -2233,7 +2451,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>66</v>
       </c>
@@ -2241,7 +2459,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
         <v>67</v>
       </c>
@@ -2249,7 +2467,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
         <v>68</v>
       </c>
@@ -2257,7 +2475,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
         <v>69</v>
       </c>
@@ -2265,7 +2483,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" t="s">
         <v>70</v>
       </c>

--- a/Nanazono_Familiar/Assets/Resources/NameList.xlsx
+++ b/Nanazono_Familiar/Assets/Resources/NameList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
   <si>
     <t>kake3</t>
     <phoneticPr fontId="1"/>
@@ -1250,6 +1250,34 @@
   </si>
   <si>
     <t>メテヨヤ</t>
+  </si>
+  <si>
+    <t>ロ,イ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カ,ル,ロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤ,イ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ル,ー,ド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミ,ー,シ,ャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キ,ッ,カ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤ,コ,ブ</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1581,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1663,6 +1691,9 @@
       <c r="H2" t="s">
         <v>256</v>
       </c>
+      <c r="I2" t="s">
+        <v>315</v>
+      </c>
       <c r="J2" t="s">
         <v>263</v>
       </c>
@@ -1698,6 +1729,9 @@
       <c r="H3" t="s">
         <v>257</v>
       </c>
+      <c r="I3" t="s">
+        <v>317</v>
+      </c>
       <c r="J3" t="s">
         <v>264</v>
       </c>
@@ -1733,6 +1767,9 @@
       <c r="H4" t="s">
         <v>258</v>
       </c>
+      <c r="I4" t="s">
+        <v>316</v>
+      </c>
       <c r="J4" t="s">
         <v>265</v>
       </c>
@@ -1768,6 +1805,9 @@
       <c r="H5" t="s">
         <v>259</v>
       </c>
+      <c r="I5" t="s">
+        <v>318</v>
+      </c>
       <c r="J5" t="s">
         <v>266</v>
       </c>
@@ -1803,6 +1843,9 @@
       <c r="H6" t="s">
         <v>260</v>
       </c>
+      <c r="I6" t="s">
+        <v>321</v>
+      </c>
       <c r="J6" t="s">
         <v>267</v>
       </c>
@@ -1838,6 +1881,9 @@
       <c r="H7" t="s">
         <v>261</v>
       </c>
+      <c r="I7" t="s">
+        <v>320</v>
+      </c>
       <c r="J7" t="s">
         <v>268</v>
       </c>
@@ -1869,6 +1915,9 @@
       </c>
       <c r="H8" t="s">
         <v>262</v>
+      </c>
+      <c r="I8" t="s">
+        <v>319</v>
       </c>
       <c r="J8" t="s">
         <v>269</v>
